--- a/biology/Biochimie/Perlécan/Perlécan.xlsx
+++ b/biology/Biochimie/Perlécan/Perlécan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Perl%C3%A9can</t>
+          <t>Perlécan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le perlécan est une protéoglycane des membranes basales aussi appelé protéoglycane à héparane-sulfate. Il fait partie des constituants des lames basales. Il est considéré comme une barrière pour les molécules chargées négativement car lui-même est extrêmement hydrophile (chargée négativement).
 Certaines tumeurs du pancréas surproduisent du perlécan. Cela leur permet de modifier la matrice extracellulaire et donc se déplacer facilement au sein de cette dernière.
